--- a/DW+P5+-+Modele+plan+tests+acceptation.xlsx
+++ b/DW+P5+-+Modele+plan+tests+acceptation.xlsx
@@ -478,14 +478,14 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="58.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="57.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="58.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="57.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="52.71"/>
   </cols>
   <sheetData>
@@ -623,7 +623,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="34.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="n">
         <v>8</v>
       </c>
